--- a/2025_2026_SUBCOMS.xlsx
+++ b/2025_2026_SUBCOMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Desktop\CU FILES\SUBCOMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB68530D-5589-4533-9425-18C632B27D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CDA3A2-9849-4D72-AC51-9B1C533CB7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9AA6550-6033-45CD-A44D-E829F5EBFE7A}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>Ephraim Muriuki</t>
   </si>
   <si>
-    <t>Callistus Koo</t>
-  </si>
-  <si>
     <t>Vascaline Kamau</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>Kelly Kimutai</t>
+  </si>
+  <si>
+    <t>Kelvin Mwindi</t>
   </si>
 </sst>
 </file>
@@ -657,12 +657,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,6 +664,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F35E5-A091-4B2B-843B-472005759900}">
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E181" sqref="A174:E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,12 +1008,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -1119,12 +1119,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1225,12 +1225,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -1331,12 +1331,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
@@ -1437,12 +1437,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
@@ -1543,12 +1543,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
@@ -1625,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>6</v>
@@ -1646,12 +1646,12 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="A57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
@@ -1752,12 +1752,12 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
@@ -1858,12 +1858,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="A75" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
@@ -1964,12 +1964,12 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="A84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
@@ -2070,12 +2070,12 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
@@ -2176,12 +2176,12 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
@@ -2244,13 +2244,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D107" s="3">
-        <v>113974006</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2258,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>6</v>
@@ -2272,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>6</v>
@@ -2282,12 +2279,12 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
@@ -2388,12 +2385,12 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
@@ -2494,12 +2491,12 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A129" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="A129" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
@@ -2590,19 +2587,19 @@
         <v>6</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
@@ -2703,12 +2700,12 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
@@ -2809,12 +2806,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
@@ -2835,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -2846,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>4</v>
@@ -2857,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>5</v>
@@ -2868,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>6</v>
@@ -2879,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>6</v>
@@ -2890,19 +2887,19 @@
         <v>6</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A165" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="A165" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
@@ -2923,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
@@ -2937,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>4</v>
@@ -2951,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>5</v>
@@ -2968,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>6</v>
@@ -2985,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>6</v>
@@ -3002,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>6</v>
@@ -3021,12 +3018,12 @@
       <c r="P173" s="1"/>
     </row>
     <row r="174" spans="1:16" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A174" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="A174" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
@@ -3047,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>3</v>
@@ -3061,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>4</v>
@@ -3075,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>5</v>
@@ -3089,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>6</v>
@@ -3103,7 +3100,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>6</v>
@@ -3117,7 +3114,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>6</v>
@@ -3127,12 +3124,12 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A183" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+      <c r="A183" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
@@ -3153,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3167,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>4</v>
@@ -3181,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>5</v>
@@ -3195,7 +3192,7 @@
         <v>4</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>6</v>
@@ -3209,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>6</v>
@@ -3223,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>6</v>
@@ -3233,12 +3230,12 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A192" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="A192" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
@@ -3259,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3273,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>4</v>
@@ -3287,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>5</v>
@@ -3298,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>6</v>
@@ -3312,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>6</v>
@@ -3326,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>6</v>
@@ -3337,16 +3334,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A129:D129"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A192:D192"/>
@@ -3360,6 +3347,16 @@
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A138:D138"/>
     <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
